--- a/GATEWAY/A1#111#DLSERVICEXX/DLService/MediciConvenzionati/15.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#DLSERVICEXX/DLService/MediciConvenzionati/15.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlorefice\Documents\GitHub\it-fse-accreditamento\it-fse-accreditamento\GATEWAY\A1#111#DLSERVICEXX\DLService\MediciConvenzionati\15.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlorefice\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B085F0BF-C245-40E1-9727-8C56F8108352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5371E4B4-EB02-4DD8-9EC4-15F046716C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$225</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="515">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1345,9 +1345,6 @@
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT4_KO</t>
-  </si>
-  <si>
     <t>417, 418, 419</t>
   </si>
   <si>
@@ -1964,60 +1961,12 @@
     <t>subject_application_version: 15.0</t>
   </si>
   <si>
-    <t>Il software non permette l'utilizzo di un token jwt che non presenta campi obbligatori.</t>
-  </si>
-  <si>
     <t>Errore di timeout. Si prega di riprovare più tardi.</t>
   </si>
   <si>
     <t>Viene segnalato un errore di timeout della validazione e si richiede all'utente di riprovare in un momento successivo.</t>
   </si>
   <si>
-    <t>Il software non permette l'inserimento di un livello di riservatezza vuoto in quanto il campo è obbligatorio.</t>
-  </si>
-  <si>
-    <t>Il controllo sulla validità del codice fiscale viene effettuato dal software in fase di inserimento del paziente e la congruenza del codice fiscale stesso viene controllato prima di effettuare una validazione documento all'FSE. Il Codice Fiscale viene inviato sempre in MAIUSCOLO</t>
-  </si>
-  <si>
-    <t>Non è possibile indicare valori diversi da quelli previsti nel dizionario.</t>
-  </si>
-  <si>
-    <t>Il software non permette l'invio di un documento che non presenta le informazioni relative alla residenza del paziente</t>
-  </si>
-  <si>
-    <t>Il campo Nome è un campo obbligatorio nel software e non è possibile memorizzare un paziente che non presenti tale dato.</t>
-  </si>
-  <si>
-    <t>Il campo sesso nel software può assumere solo 3 valori e quindi tale campo nel CDA verrà sempre valorizzato in maniera corretta.</t>
-  </si>
-  <si>
-    <t>Il campo contenente la tipologia di accesso può solo essere valorizzato con valori validi o non valorizzato, quindi non è possibile inserire un dato errato.</t>
-  </si>
-  <si>
-    <t>Il campo contenente la priorità della richiesta può solo essere valorizzato con valori validi o non valorizzato, quindi non è possibile inserire un dato errato.</t>
-  </si>
-  <si>
-    <t>Se è presente una prescrizione il software richiede obbligatoriamente l'inserimento dell'NRE.</t>
-  </si>
-  <si>
-    <t>Il codice della prestazione eseguita è un campo obbligatorio nel software.</t>
-  </si>
-  <si>
-    <t>Il referto è un campo obbligatorio nel software.</t>
-  </si>
-  <si>
-    <t>Il quesito diagnostico NON è un campo obbligatorio ma se presente è in formato testuale e la parte narrativa viene compilata, se NON presente tutta la sezione opzionale relativa al quesito diagnostico non viene inserita nel CDA.</t>
-  </si>
-  <si>
-    <t>è obbligatorio inserire almeno una prestazione valida nel software per poter effettuare l'invio del documento.</t>
-  </si>
-  <si>
-    <t>La storia clinica non è gestita dal software in maniera strutturata ma solamente in maniera descrittiva.</t>
-  </si>
-  <si>
-    <t>Il campo viene sempre impostato con il valore valido S e non è possibile avere un valore differente.</t>
-  </si>
-  <si>
     <t>2024-10-08T17:36:21Z</t>
   </si>
   <si>
@@ -2027,10 +1976,7 @@
     <t>2.16.840.1.113883.2.9.2.190.4.4.2981af7bf497558b8949deeaf41447701515658a3834bc40e21e44e2389709c7.9b2c286e65^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Le sezioni  non sono gestite dal software</t>
-  </si>
-  <si>
-    <t>Le sezioni opzionali non sono gestie dal software</t>
+    <t>E' stato utilizzato lo stesso file pdf contente il Referto xml CDA2 del Test Case 1 dato che contiene tutte le sezioni ed elementi obbligatori da specifiche nazionali HL7 Italia</t>
   </si>
   <si>
     <t>2024-10-08T17:36:20Z</t>
@@ -2040,9 +1986,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.190.4.4.2981af7bf497558b8949deeaf41447701515658a3834bc40e21e44e2389709c7.599f636a63^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>E' stato utilizzato lo stesso file pdf contente il Referto xml CDA2 del Test Case 1 dato che contiene tutte le sezioni ed elementi obbligatori da specifiche nazionali HL7 Italia</t>
   </si>
 </sst>
 </file>
@@ -2052,18 +1995,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2181,19 +2117,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2215,7 +2138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2737,6 +2660,19 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -2771,253 +2707,239 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{565105C8-FFD6-432C-8B2E-BD1D172FCD26}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale 2" xfId="2" xr:uid="{9D821500-0102-4BAC-98FD-BFF090E4C498}"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -3310,8 +3232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,7 +3259,7 @@
     </row>
     <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="300" x14ac:dyDescent="0.25">
@@ -3390,7 +3312,7 @@
   <dimension ref="A1:B996"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4457,29 +4379,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AA809"/>
+  <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
+      <selection pane="bottomRight" activeCell="L172" sqref="L172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="5" max="5" width="104.85546875" customWidth="1"/>
+    <col min="6" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="11" width="70.5703125" customWidth="1"/>
-    <col min="12" max="18" width="36.42578125" customWidth="1"/>
+    <col min="11" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="19" width="27.140625" customWidth="1"/>
     <col min="20" max="20" width="33.140625" customWidth="1"/>
     <col min="21" max="21" width="36.42578125" customWidth="1"/>
@@ -4509,14 +4427,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80" t="s">
-        <v>503</v>
-      </c>
-      <c r="D2" s="79"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" s="75"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4537,14 +4455,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="87" t="s">
-        <v>504</v>
-      </c>
-      <c r="D3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="83" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" s="75"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4565,12 +4483,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="87" t="s">
-        <v>505</v>
-      </c>
-      <c r="D4" s="79"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="D4" s="75"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4592,12 +4510,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87" t="s">
-        <v>506</v>
-      </c>
-      <c r="D5" s="79"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83" t="s">
+        <v>505</v>
+      </c>
+      <c r="D5" s="75"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4618,8 +4536,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4768,7 +4686,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="33"/>
@@ -4805,7 +4723,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="33"/>
@@ -4842,7 +4760,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="33"/>
@@ -4879,7 +4797,7 @@
         <v>40</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
@@ -4916,7 +4834,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="33"/>
@@ -4953,7 +4871,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
@@ -4990,7 +4908,7 @@
         <v>44</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="33"/>
@@ -5027,7 +4945,7 @@
         <v>45</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
@@ -5064,7 +4982,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="33"/>
@@ -5101,7 +5019,7 @@
         <v>51</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
@@ -5138,7 +5056,7 @@
         <v>52</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="33"/>
@@ -5175,7 +5093,7 @@
         <v>53</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="33"/>
@@ -5212,7 +5130,7 @@
         <v>54</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -5249,7 +5167,7 @@
         <v>56</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="33"/>
@@ -5286,7 +5204,7 @@
         <v>57</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="33"/>
@@ -5323,7 +5241,7 @@
         <v>58</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="33"/>
@@ -5360,7 +5278,7 @@
         <v>59</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="33"/>
@@ -5397,7 +5315,7 @@
         <v>61</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="33"/>
@@ -5434,7 +5352,7 @@
         <v>62</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="33"/>
@@ -5471,7 +5389,7 @@
         <v>63</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="33"/>
@@ -5508,7 +5426,7 @@
         <v>64</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="33"/>
@@ -5665,8 +5583,8 @@
       <c r="J34" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K34" s="67" t="s">
-        <v>507</v>
+      <c r="K34" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="34"/>
@@ -5706,8 +5624,8 @@
       <c r="J35" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K35" s="67" t="s">
-        <v>507</v>
+      <c r="K35" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L35" s="34"/>
       <c r="M35" s="34"/>
@@ -5969,8 +5887,8 @@
       <c r="J42" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K42" s="67" t="s">
-        <v>507</v>
+      <c r="K42" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
@@ -5987,7 +5905,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="29">
         <v>40</v>
       </c>
@@ -6010,8 +5928,8 @@
       <c r="J43" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K43" s="67" t="s">
-        <v>507</v>
+      <c r="K43" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
@@ -6272,36 +6190,40 @@
       <c r="E50" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="F50" s="69">
+      <c r="F50" s="68">
         <v>45573</v>
       </c>
       <c r="G50" s="33"/>
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
-      <c r="J50" s="67" t="s">
+      <c r="J50" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67" t="s">
+      <c r="K50" s="34"/>
+      <c r="L50" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="M50" s="67" t="s">
+      <c r="M50" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="N50" s="70" t="s">
-        <v>508</v>
-      </c>
-      <c r="O50" s="67" t="s">
+      <c r="N50" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O50" s="69" t="s">
+        <v>506</v>
+      </c>
+      <c r="P50" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="P50" s="71" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="72" t="s">
+      <c r="Q50" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="R50" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="S50" s="73"/>
+      <c r="S50" s="70" t="s">
+        <v>507</v>
+      </c>
       <c r="T50" s="34"/>
       <c r="U50" s="35" t="s">
         <v>87</v>
@@ -6327,36 +6249,40 @@
       <c r="E51" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="F51" s="69">
+      <c r="F51" s="68">
         <v>45573</v>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
       <c r="I51" s="33"/>
-      <c r="J51" s="67" t="s">
+      <c r="J51" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67" t="s">
+      <c r="K51" s="34"/>
+      <c r="L51" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="M51" s="67" t="s">
+      <c r="M51" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="N51" s="70" t="s">
-        <v>508</v>
-      </c>
-      <c r="O51" s="67" t="s">
+      <c r="N51" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O51" s="69" t="s">
+        <v>506</v>
+      </c>
+      <c r="P51" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="P51" s="71" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="72" t="s">
+      <c r="Q51" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="R51" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="S51" s="73"/>
+      <c r="S51" s="70" t="s">
+        <v>507</v>
+      </c>
       <c r="T51" s="34"/>
       <c r="U51" s="35" t="s">
         <v>87</v>
@@ -6904,7 +6830,7 @@
         <v>117</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F66" s="32"/>
       <c r="G66" s="33"/>
@@ -6941,7 +6867,7 @@
         <v>118</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="33"/>
@@ -6978,7 +6904,7 @@
         <v>119</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="33"/>
@@ -7015,7 +6941,7 @@
         <v>120</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F69" s="32"/>
       <c r="G69" s="33"/>
@@ -7052,7 +6978,7 @@
         <v>121</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F70" s="32"/>
       <c r="G70" s="33"/>
@@ -7089,7 +7015,7 @@
         <v>122</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F71" s="32"/>
       <c r="G71" s="33"/>
@@ -7126,7 +7052,7 @@
         <v>123</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F72" s="32"/>
       <c r="G72" s="33"/>
@@ -7163,7 +7089,7 @@
         <v>124</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F73" s="32"/>
       <c r="G73" s="33"/>
@@ -7200,7 +7126,7 @@
         <v>125</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="33"/>
@@ -7237,7 +7163,7 @@
         <v>126</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F75" s="32"/>
       <c r="G75" s="33"/>
@@ -7274,7 +7200,7 @@
         <v>127</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F76" s="32"/>
       <c r="G76" s="33"/>
@@ -7311,7 +7237,7 @@
         <v>128</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F77" s="32"/>
       <c r="G77" s="33"/>
@@ -7348,17 +7274,17 @@
         <v>129</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F78" s="32"/>
       <c r="G78" s="33"/>
       <c r="H78" s="33"/>
       <c r="I78" s="33"/>
-      <c r="J78" s="67" t="s">
+      <c r="J78" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K78" s="67" t="s">
-        <v>510</v>
+      <c r="K78" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L78" s="34"/>
       <c r="M78" s="34"/>
@@ -7389,17 +7315,17 @@
         <v>130</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F79" s="32"/>
       <c r="G79" s="33"/>
       <c r="H79" s="33"/>
       <c r="I79" s="33"/>
-      <c r="J79" s="67" t="s">
+      <c r="J79" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K79" s="67" t="s">
-        <v>511</v>
+      <c r="K79" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L79" s="34"/>
       <c r="M79" s="34"/>
@@ -7436,11 +7362,11 @@
       <c r="G80" s="33"/>
       <c r="H80" s="33"/>
       <c r="I80" s="33"/>
-      <c r="J80" s="67" t="s">
+      <c r="J80" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K80" s="67" t="s">
-        <v>512</v>
+      <c r="K80" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L80" s="34"/>
       <c r="M80" s="34"/>
@@ -7477,11 +7403,11 @@
       <c r="G81" s="33"/>
       <c r="H81" s="33"/>
       <c r="I81" s="33"/>
-      <c r="J81" s="67" t="s">
+      <c r="J81" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K81" s="67" t="s">
-        <v>513</v>
+      <c r="K81" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L81" s="34"/>
       <c r="M81" s="34"/>
@@ -7512,17 +7438,17 @@
         <v>135</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F82" s="32"/>
       <c r="G82" s="33"/>
       <c r="H82" s="33"/>
       <c r="I82" s="33"/>
-      <c r="J82" s="67" t="s">
+      <c r="J82" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K82" s="67" t="s">
-        <v>514</v>
+      <c r="K82" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L82" s="34"/>
       <c r="M82" s="34"/>
@@ -7553,17 +7479,17 @@
         <v>136</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F83" s="32"/>
       <c r="G83" s="33"/>
       <c r="H83" s="33"/>
       <c r="I83" s="33"/>
-      <c r="J83" s="67" t="s">
+      <c r="J83" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K83" s="67" t="s">
-        <v>515</v>
+      <c r="K83" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L83" s="34"/>
       <c r="M83" s="34"/>
@@ -7594,17 +7520,17 @@
         <v>137</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="33"/>
       <c r="H84" s="33"/>
       <c r="I84" s="33"/>
-      <c r="J84" s="67" t="s">
+      <c r="J84" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K84" s="67" t="s">
-        <v>516</v>
+      <c r="K84" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L84" s="34"/>
       <c r="M84" s="34"/>
@@ -7635,17 +7561,17 @@
         <v>138</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F85" s="32"/>
       <c r="G85" s="33"/>
       <c r="H85" s="33"/>
       <c r="I85" s="33"/>
-      <c r="J85" s="67" t="s">
+      <c r="J85" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K85" s="67" t="s">
-        <v>517</v>
+      <c r="K85" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L85" s="34"/>
       <c r="M85" s="34"/>
@@ -7682,11 +7608,11 @@
       <c r="G86" s="33"/>
       <c r="H86" s="33"/>
       <c r="I86" s="33"/>
-      <c r="J86" s="67" t="s">
+      <c r="J86" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K86" s="67" t="s">
-        <v>518</v>
+      <c r="K86" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L86" s="34"/>
       <c r="M86" s="34"/>
@@ -7723,11 +7649,11 @@
       <c r="G87" s="33"/>
       <c r="H87" s="33"/>
       <c r="I87" s="33"/>
-      <c r="J87" s="67" t="s">
+      <c r="J87" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K87" s="67" t="s">
-        <v>519</v>
+      <c r="K87" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L87" s="34"/>
       <c r="M87" s="34"/>
@@ -7758,17 +7684,17 @@
         <v>143</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F88" s="32"/>
       <c r="G88" s="33"/>
       <c r="H88" s="33"/>
       <c r="I88" s="33"/>
-      <c r="J88" s="67" t="s">
+      <c r="J88" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K88" s="67" t="s">
-        <v>520</v>
+      <c r="K88" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L88" s="34"/>
       <c r="M88" s="34"/>
@@ -7799,17 +7725,17 @@
         <v>144</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F89" s="32"/>
       <c r="G89" s="33"/>
       <c r="H89" s="33"/>
       <c r="I89" s="33"/>
-      <c r="J89" s="67" t="s">
+      <c r="J89" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K89" s="67" t="s">
-        <v>521</v>
+      <c r="K89" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L89" s="34"/>
       <c r="M89" s="34"/>
@@ -7840,17 +7766,17 @@
         <v>145</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F90" s="32"/>
       <c r="G90" s="33"/>
       <c r="H90" s="33"/>
       <c r="I90" s="33"/>
-      <c r="J90" s="67" t="s">
+      <c r="J90" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K90" s="67" t="s">
-        <v>522</v>
+      <c r="K90" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L90" s="34"/>
       <c r="M90" s="34"/>
@@ -7881,17 +7807,17 @@
         <v>146</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F91" s="32"/>
       <c r="G91" s="33"/>
       <c r="H91" s="33"/>
       <c r="I91" s="33"/>
-      <c r="J91" s="67" t="s">
+      <c r="J91" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K91" s="67" t="s">
-        <v>523</v>
+      <c r="K91" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L91" s="34"/>
       <c r="M91" s="34"/>
@@ -7928,11 +7854,11 @@
       <c r="G92" s="33"/>
       <c r="H92" s="33"/>
       <c r="I92" s="33"/>
-      <c r="J92" s="67" t="s">
+      <c r="J92" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K92" s="67" t="s">
-        <v>523</v>
+      <c r="K92" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L92" s="34"/>
       <c r="M92" s="34"/>
@@ -7969,11 +7895,11 @@
       <c r="G93" s="33"/>
       <c r="H93" s="33"/>
       <c r="I93" s="33"/>
-      <c r="J93" s="67" t="s">
+      <c r="J93" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K93" s="67" t="s">
-        <v>523</v>
+      <c r="K93" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L93" s="34"/>
       <c r="M93" s="34"/>
@@ -8004,17 +7930,17 @@
         <v>151</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="33"/>
       <c r="H94" s="33"/>
       <c r="I94" s="33"/>
-      <c r="J94" s="67" t="s">
+      <c r="J94" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K94" s="67" t="s">
-        <v>523</v>
+      <c r="K94" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L94" s="34"/>
       <c r="M94" s="34"/>
@@ -8051,11 +7977,11 @@
       <c r="G95" s="33"/>
       <c r="H95" s="33"/>
       <c r="I95" s="33"/>
-      <c r="J95" s="67" t="s">
+      <c r="J95" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K95" s="67" t="s">
-        <v>523</v>
+      <c r="K95" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L95" s="34"/>
       <c r="M95" s="34"/>
@@ -8086,17 +8012,17 @@
         <v>154</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F96" s="32"/>
       <c r="G96" s="33"/>
       <c r="H96" s="33"/>
       <c r="I96" s="33"/>
-      <c r="J96" s="67" t="s">
+      <c r="J96" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K96" s="67" t="s">
-        <v>524</v>
+      <c r="K96" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L96" s="34"/>
       <c r="M96" s="34"/>
@@ -8127,7 +8053,7 @@
         <v>155</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F97" s="32"/>
       <c r="G97" s="33"/>
@@ -8164,7 +8090,7 @@
         <v>156</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F98" s="32"/>
       <c r="G98" s="33"/>
@@ -8238,7 +8164,7 @@
         <v>159</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F100" s="32"/>
       <c r="G100" s="33"/>
@@ -8275,7 +8201,7 @@
         <v>160</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F101" s="32"/>
       <c r="G101" s="33"/>
@@ -8312,7 +8238,7 @@
         <v>161</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F102" s="32"/>
       <c r="G102" s="33"/>
@@ -8386,7 +8312,7 @@
         <v>164</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="33"/>
@@ -8423,7 +8349,7 @@
         <v>165</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F105" s="32"/>
       <c r="G105" s="33"/>
@@ -8460,7 +8386,7 @@
         <v>166</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F106" s="32"/>
       <c r="G106" s="33"/>
@@ -8534,7 +8460,7 @@
         <v>169</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F108" s="32"/>
       <c r="G108" s="33"/>
@@ -8571,7 +8497,7 @@
         <v>170</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F109" s="32"/>
       <c r="G109" s="33"/>
@@ -8608,7 +8534,7 @@
         <v>171</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F110" s="32"/>
       <c r="G110" s="33"/>
@@ -8645,7 +8571,7 @@
         <v>172</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F111" s="32"/>
       <c r="G111" s="33"/>
@@ -8682,7 +8608,7 @@
         <v>173</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F112" s="32"/>
       <c r="G112" s="33"/>
@@ -8756,7 +8682,7 @@
         <v>176</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="33"/>
@@ -8793,7 +8719,7 @@
         <v>177</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F115" s="32"/>
       <c r="G115" s="33"/>
@@ -8830,7 +8756,7 @@
         <v>178</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F116" s="32"/>
       <c r="G116" s="33"/>
@@ -8867,7 +8793,7 @@
         <v>179</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F117" s="32"/>
       <c r="G117" s="33"/>
@@ -8904,7 +8830,7 @@
         <v>180</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F118" s="32"/>
       <c r="G118" s="33"/>
@@ -8941,7 +8867,7 @@
         <v>181</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F119" s="32"/>
       <c r="G119" s="33"/>
@@ -8978,7 +8904,7 @@
         <v>182</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F120" s="32"/>
       <c r="G120" s="33"/>
@@ -9015,7 +8941,7 @@
         <v>183</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F121" s="32"/>
       <c r="G121" s="33"/>
@@ -9052,7 +8978,7 @@
         <v>184</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F122" s="32"/>
       <c r="G122" s="33"/>
@@ -9089,7 +9015,7 @@
         <v>185</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F123" s="32"/>
       <c r="G123" s="33"/>
@@ -9126,7 +9052,7 @@
         <v>186</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="33"/>
@@ -9274,7 +9200,7 @@
         <v>193</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F128" s="32"/>
       <c r="G128" s="33"/>
@@ -9422,7 +9348,7 @@
         <v>200</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F132" s="32"/>
       <c r="G132" s="33"/>
@@ -9570,7 +9496,7 @@
         <v>207</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F136" s="32"/>
       <c r="G136" s="33"/>
@@ -9718,7 +9644,7 @@
         <v>214</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F140" s="32"/>
       <c r="G140" s="33"/>
@@ -9866,7 +9792,7 @@
         <v>221</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="33"/>
@@ -10014,7 +9940,7 @@
         <v>228</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F148" s="32"/>
       <c r="G148" s="33"/>
@@ -10051,7 +9977,7 @@
         <v>229</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F149" s="32"/>
       <c r="G149" s="33"/>
@@ -10088,21 +10014,21 @@
         <v>230</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>469</v>
-      </c>
-      <c r="F150" s="69">
+        <v>468</v>
+      </c>
+      <c r="F150" s="68">
         <v>45573</v>
       </c>
-      <c r="G150" s="74" t="s">
-        <v>525</v>
-      </c>
-      <c r="H150" s="74" t="s">
-        <v>526</v>
-      </c>
-      <c r="I150" s="74" t="s">
-        <v>527</v>
-      </c>
-      <c r="J150" s="67" t="s">
+      <c r="G150" s="71" t="s">
+        <v>508</v>
+      </c>
+      <c r="H150" s="71" t="s">
+        <v>509</v>
+      </c>
+      <c r="I150" s="71" t="s">
+        <v>510</v>
+      </c>
+      <c r="J150" s="34" t="s">
         <v>87</v>
       </c>
       <c r="K150" s="34"/>
@@ -10114,7 +10040,7 @@
       <c r="Q150" s="34"/>
       <c r="R150" s="34"/>
       <c r="S150" s="34"/>
-      <c r="T150" s="67" t="s">
+      <c r="T150" s="34" t="s">
         <v>305</v>
       </c>
       <c r="U150" s="35"/>
@@ -10137,17 +10063,17 @@
         <v>231</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>470</v>
-      </c>
-      <c r="F151" s="69"/>
-      <c r="G151" s="74"/>
+        <v>469</v>
+      </c>
+      <c r="F151" s="32"/>
+      <c r="G151" s="33"/>
       <c r="H151" s="33"/>
       <c r="I151" s="33"/>
-      <c r="J151" s="67" t="s">
+      <c r="J151" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K151" s="67" t="s">
-        <v>528</v>
+      <c r="K151" s="34" t="s">
+        <v>312</v>
       </c>
       <c r="L151" s="34"/>
       <c r="M151" s="34"/>
@@ -10157,7 +10083,7 @@
       <c r="Q151" s="34"/>
       <c r="R151" s="34"/>
       <c r="S151" s="34"/>
-      <c r="T151" s="67" t="s">
+      <c r="T151" s="34" t="s">
         <v>305</v>
       </c>
       <c r="U151" s="35"/>
@@ -10180,17 +10106,17 @@
         <v>232</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="F152" s="69"/>
-      <c r="G152" s="74"/>
+        <v>470</v>
+      </c>
+      <c r="F152" s="32"/>
+      <c r="G152" s="33"/>
       <c r="H152" s="33"/>
       <c r="I152" s="33"/>
-      <c r="J152" s="67" t="s">
+      <c r="J152" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K152" s="67" t="s">
-        <v>528</v>
+      <c r="K152" s="34" t="s">
+        <v>312</v>
       </c>
       <c r="L152" s="34"/>
       <c r="M152" s="34"/>
@@ -10200,7 +10126,7 @@
       <c r="Q152" s="34"/>
       <c r="R152" s="34"/>
       <c r="S152" s="34"/>
-      <c r="T152" s="67" t="s">
+      <c r="T152" s="34" t="s">
         <v>305</v>
       </c>
       <c r="U152" s="35"/>
@@ -10223,17 +10149,17 @@
         <v>233</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="F153" s="69"/>
-      <c r="G153" s="74"/>
+        <v>471</v>
+      </c>
+      <c r="F153" s="32"/>
+      <c r="G153" s="33"/>
       <c r="H153" s="33"/>
       <c r="I153" s="33"/>
-      <c r="J153" s="67" t="s">
+      <c r="J153" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K153" s="67" t="s">
-        <v>529</v>
+      <c r="K153" s="34" t="s">
+        <v>312</v>
       </c>
       <c r="L153" s="34"/>
       <c r="M153" s="34"/>
@@ -10243,7 +10169,7 @@
       <c r="Q153" s="34"/>
       <c r="R153" s="34"/>
       <c r="S153" s="34"/>
-      <c r="T153" s="67" t="s">
+      <c r="T153" s="34" t="s">
         <v>305</v>
       </c>
       <c r="U153" s="35"/>
@@ -10272,11 +10198,11 @@
       <c r="G154" s="33"/>
       <c r="H154" s="33"/>
       <c r="I154" s="33"/>
-      <c r="J154" s="67" t="s">
+      <c r="J154" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K154" s="67" t="s">
-        <v>510</v>
+      <c r="K154" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L154" s="34"/>
       <c r="M154" s="34"/>
@@ -10307,17 +10233,17 @@
         <v>236</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F155" s="32"/>
       <c r="G155" s="33"/>
       <c r="H155" s="33"/>
       <c r="I155" s="33"/>
-      <c r="J155" s="67" t="s">
+      <c r="J155" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K155" s="67" t="s">
-        <v>511</v>
+      <c r="K155" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L155" s="34"/>
       <c r="M155" s="34"/>
@@ -10348,17 +10274,17 @@
         <v>237</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F156" s="32"/>
       <c r="G156" s="33"/>
       <c r="H156" s="33"/>
       <c r="I156" s="33"/>
-      <c r="J156" s="67" t="s">
+      <c r="J156" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K156" s="67" t="s">
-        <v>512</v>
+      <c r="K156" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L156" s="34"/>
       <c r="M156" s="34"/>
@@ -10389,17 +10315,17 @@
         <v>238</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F157" s="32"/>
       <c r="G157" s="33"/>
       <c r="H157" s="33"/>
       <c r="I157" s="33"/>
-      <c r="J157" s="67" t="s">
+      <c r="J157" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K157" s="67" t="s">
-        <v>513</v>
+      <c r="K157" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L157" s="34"/>
       <c r="M157" s="34"/>
@@ -10430,17 +10356,17 @@
         <v>239</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F158" s="32"/>
       <c r="G158" s="33"/>
       <c r="H158" s="33"/>
       <c r="I158" s="33"/>
-      <c r="J158" s="67" t="s">
+      <c r="J158" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K158" s="67" t="s">
-        <v>514</v>
+      <c r="K158" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L158" s="34"/>
       <c r="M158" s="34"/>
@@ -10471,17 +10397,17 @@
         <v>240</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F159" s="32"/>
       <c r="G159" s="33"/>
       <c r="H159" s="33"/>
       <c r="I159" s="33"/>
-      <c r="J159" s="67" t="s">
+      <c r="J159" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K159" s="67" t="s">
-        <v>515</v>
+      <c r="K159" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L159" s="34"/>
       <c r="M159" s="34"/>
@@ -10512,17 +10438,17 @@
         <v>241</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F160" s="32"/>
       <c r="G160" s="33"/>
       <c r="H160" s="33"/>
       <c r="I160" s="33"/>
-      <c r="J160" s="67" t="s">
+      <c r="J160" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K160" s="70" t="s">
-        <v>516</v>
+      <c r="K160" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L160" s="34"/>
       <c r="M160" s="34"/>
@@ -10553,17 +10479,17 @@
         <v>242</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F161" s="32"/>
       <c r="G161" s="33"/>
       <c r="H161" s="33"/>
       <c r="I161" s="33"/>
-      <c r="J161" s="67" t="s">
+      <c r="J161" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K161" s="67" t="s">
-        <v>517</v>
+      <c r="K161" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L161" s="34"/>
       <c r="M161" s="34"/>
@@ -10600,11 +10526,11 @@
       <c r="G162" s="33"/>
       <c r="H162" s="33"/>
       <c r="I162" s="33"/>
-      <c r="J162" s="67" t="s">
+      <c r="J162" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K162" s="67" t="s">
-        <v>518</v>
+      <c r="K162" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L162" s="34"/>
       <c r="M162" s="34"/>
@@ -10641,11 +10567,11 @@
       <c r="G163" s="33"/>
       <c r="H163" s="33"/>
       <c r="I163" s="33"/>
-      <c r="J163" s="67" t="s">
+      <c r="J163" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K163" s="67" t="s">
-        <v>519</v>
+      <c r="K163" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L163" s="34"/>
       <c r="M163" s="34"/>
@@ -10676,17 +10602,17 @@
         <v>247</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="33"/>
       <c r="H164" s="33"/>
       <c r="I164" s="33"/>
-      <c r="J164" s="67" t="s">
+      <c r="J164" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K164" s="67" t="s">
-        <v>520</v>
+      <c r="K164" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L164" s="34"/>
       <c r="M164" s="34"/>
@@ -10717,17 +10643,17 @@
         <v>248</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F165" s="32"/>
       <c r="G165" s="33"/>
       <c r="H165" s="33"/>
       <c r="I165" s="33"/>
-      <c r="J165" s="67" t="s">
+      <c r="J165" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K165" s="67" t="s">
-        <v>521</v>
+      <c r="K165" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L165" s="34"/>
       <c r="M165" s="34"/>
@@ -10758,17 +10684,17 @@
         <v>249</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F166" s="32"/>
       <c r="G166" s="33"/>
       <c r="H166" s="33"/>
       <c r="I166" s="33"/>
-      <c r="J166" s="67" t="s">
+      <c r="J166" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K166" s="67" t="s">
-        <v>522</v>
+      <c r="K166" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L166" s="34"/>
       <c r="M166" s="34"/>
@@ -10799,17 +10725,17 @@
         <v>250</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F167" s="32"/>
       <c r="G167" s="33"/>
       <c r="H167" s="33"/>
       <c r="I167" s="33"/>
-      <c r="J167" s="67" t="s">
+      <c r="J167" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K167" s="67" t="s">
-        <v>523</v>
+      <c r="K167" s="34" t="s">
+        <v>312</v>
       </c>
       <c r="L167" s="34"/>
       <c r="M167" s="34"/>
@@ -10840,17 +10766,17 @@
         <v>251</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F168" s="32"/>
       <c r="G168" s="33"/>
       <c r="H168" s="33"/>
       <c r="I168" s="33"/>
-      <c r="J168" s="67" t="s">
+      <c r="J168" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K168" s="67" t="s">
-        <v>523</v>
+      <c r="K168" s="34" t="s">
+        <v>312</v>
       </c>
       <c r="L168" s="34"/>
       <c r="M168" s="34"/>
@@ -10881,17 +10807,17 @@
         <v>252</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F169" s="32"/>
       <c r="G169" s="33"/>
       <c r="H169" s="33"/>
       <c r="I169" s="33"/>
-      <c r="J169" s="67" t="s">
+      <c r="J169" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K169" s="67" t="s">
-        <v>523</v>
+      <c r="K169" s="34" t="s">
+        <v>312</v>
       </c>
       <c r="L169" s="34"/>
       <c r="M169" s="34"/>
@@ -10922,17 +10848,17 @@
         <v>253</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F170" s="32"/>
       <c r="G170" s="33"/>
       <c r="H170" s="33"/>
       <c r="I170" s="33"/>
-      <c r="J170" s="67" t="s">
+      <c r="J170" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K170" s="67" t="s">
-        <v>523</v>
+      <c r="K170" s="34" t="s">
+        <v>312</v>
       </c>
       <c r="L170" s="34"/>
       <c r="M170" s="34"/>
@@ -10963,17 +10889,17 @@
         <v>254</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F171" s="32"/>
       <c r="G171" s="33"/>
       <c r="H171" s="33"/>
       <c r="I171" s="33"/>
-      <c r="J171" s="67" t="s">
+      <c r="J171" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K171" s="67" t="s">
-        <v>523</v>
+      <c r="K171" s="34" t="s">
+        <v>312</v>
       </c>
       <c r="L171" s="34"/>
       <c r="M171" s="34"/>
@@ -11004,17 +10930,17 @@
         <v>255</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F172" s="32"/>
       <c r="G172" s="33"/>
       <c r="H172" s="33"/>
       <c r="I172" s="33"/>
-      <c r="J172" s="67" t="s">
+      <c r="J172" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K172" s="67" t="s">
-        <v>524</v>
+      <c r="K172" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L172" s="34"/>
       <c r="M172" s="34"/>
@@ -11082,7 +11008,7 @@
         <v>260</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="33"/>
@@ -11119,7 +11045,7 @@
         <v>261</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F175" s="32"/>
       <c r="G175" s="33"/>
@@ -11156,7 +11082,7 @@
         <v>262</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F176" s="32"/>
       <c r="G176" s="33"/>
@@ -11193,7 +11119,7 @@
         <v>263</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F177" s="32"/>
       <c r="G177" s="33"/>
@@ -11230,7 +11156,7 @@
         <v>264</v>
       </c>
       <c r="E178" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F178" s="32"/>
       <c r="G178" s="33"/>
@@ -11267,7 +11193,7 @@
         <v>265</v>
       </c>
       <c r="E179" s="31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F179" s="32"/>
       <c r="G179" s="33"/>
@@ -11341,7 +11267,7 @@
         <v>268</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F181" s="32"/>
       <c r="G181" s="33"/>
@@ -11378,7 +11304,7 @@
         <v>269</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F182" s="32"/>
       <c r="G182" s="33"/>
@@ -11415,7 +11341,7 @@
         <v>270</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F183" s="32"/>
       <c r="G183" s="33"/>
@@ -11452,7 +11378,7 @@
         <v>271</v>
       </c>
       <c r="E184" s="31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F184" s="32"/>
       <c r="G184" s="33"/>
@@ -11489,7 +11415,7 @@
         <v>272</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F185" s="32"/>
       <c r="G185" s="33"/>
@@ -11526,7 +11452,7 @@
         <v>273</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F186" s="32"/>
       <c r="G186" s="33"/>
@@ -11563,7 +11489,7 @@
         <v>274</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F187" s="32"/>
       <c r="G187" s="33"/>
@@ -11600,7 +11526,7 @@
         <v>275</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F188" s="32"/>
       <c r="G188" s="33"/>
@@ -11637,7 +11563,7 @@
         <v>276</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F189" s="32"/>
       <c r="G189" s="33"/>
@@ -11674,7 +11600,7 @@
         <v>277</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F190" s="32"/>
       <c r="G190" s="33"/>
@@ -11711,7 +11637,7 @@
         <v>278</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F191" s="32"/>
       <c r="G191" s="33"/>
@@ -11748,7 +11674,7 @@
         <v>279</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F192" s="32"/>
       <c r="G192" s="33"/>
@@ -11771,7 +11697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="29">
         <v>371</v>
       </c>
@@ -11785,7 +11711,7 @@
         <v>280</v>
       </c>
       <c r="E193" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F193" s="32"/>
       <c r="G193" s="33"/>
@@ -11808,7 +11734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="29">
         <v>372</v>
       </c>
@@ -11822,7 +11748,7 @@
         <v>281</v>
       </c>
       <c r="E194" s="31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F194" s="32"/>
       <c r="G194" s="33"/>
@@ -11845,7 +11771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="29">
         <v>373</v>
       </c>
@@ -11859,7 +11785,7 @@
         <v>282</v>
       </c>
       <c r="E195" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F195" s="32"/>
       <c r="G195" s="33"/>
@@ -11882,7 +11808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:27" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="29">
         <v>374</v>
       </c>
@@ -11896,21 +11822,21 @@
         <v>283</v>
       </c>
       <c r="E196" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="F196" s="69">
+        <v>500</v>
+      </c>
+      <c r="F196" s="68">
         <v>45573</v>
       </c>
-      <c r="G196" s="74" t="s">
-        <v>530</v>
-      </c>
-      <c r="H196" s="74" t="s">
-        <v>526</v>
-      </c>
-      <c r="I196" s="74" t="s">
-        <v>527</v>
-      </c>
-      <c r="J196" s="67" t="s">
+      <c r="G196" s="71" t="s">
+        <v>512</v>
+      </c>
+      <c r="H196" s="71" t="s">
+        <v>509</v>
+      </c>
+      <c r="I196" s="71" t="s">
+        <v>510</v>
+      </c>
+      <c r="J196" s="34" t="s">
         <v>87</v>
       </c>
       <c r="K196" s="34"/>
@@ -11918,24 +11844,22 @@
       <c r="M196" s="34"/>
       <c r="N196" s="34"/>
       <c r="O196" s="34"/>
-      <c r="P196" s="67" t="s">
-        <v>307</v>
-      </c>
+      <c r="P196" s="34"/>
       <c r="Q196" s="34"/>
       <c r="R196" s="34"/>
       <c r="S196" s="34"/>
-      <c r="T196" s="67" t="s">
+      <c r="T196" s="34" t="s">
         <v>305</v>
       </c>
       <c r="U196" s="35"/>
       <c r="V196" s="36" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="W196" s="39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="197" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>376</v>
       </c>
@@ -11949,7 +11873,7 @@
         <v>284</v>
       </c>
       <c r="E197" s="42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F197" s="43"/>
       <c r="G197" s="44"/>
@@ -11972,7 +11896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="198" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="49">
         <v>417</v>
       </c>
@@ -11986,7 +11910,7 @@
         <v>330</v>
       </c>
       <c r="E198" s="51" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F198" s="52"/>
       <c r="G198" s="53"/>
@@ -12009,7 +11933,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="49">
         <v>418</v>
       </c>
@@ -12023,7 +11947,7 @@
         <v>331</v>
       </c>
       <c r="E199" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F199" s="52"/>
       <c r="G199" s="53"/>
@@ -12046,7 +11970,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="200" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="49">
         <v>419</v>
       </c>
@@ -12060,7 +11984,7 @@
         <v>332</v>
       </c>
       <c r="E200" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F200" s="52"/>
       <c r="G200" s="53"/>
@@ -12083,7 +12007,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="49">
         <v>423</v>
       </c>
@@ -12120,7 +12044,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="202" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="49">
         <v>424</v>
       </c>
@@ -12157,7 +12081,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="203" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="49">
         <v>425</v>
       </c>
@@ -12194,7 +12118,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="204" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="49">
         <v>426</v>
       </c>
@@ -12208,7 +12132,7 @@
         <v>336</v>
       </c>
       <c r="E204" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F204" s="52"/>
       <c r="G204" s="53"/>
@@ -12230,18 +12154,8 @@
       <c r="W204" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y204">
-        <v>6</v>
-      </c>
-      <c r="Z204" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA204" t="str">
-        <f>_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y204,"_KO")</f>
-        <v>VALIDAZIONE_CDA2_RAP_CT6_KO</v>
-      </c>
-    </row>
-    <row r="205" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="49">
         <v>427</v>
       </c>
@@ -12255,7 +12169,7 @@
         <v>337</v>
       </c>
       <c r="E205" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F205" s="52"/>
       <c r="G205" s="53"/>
@@ -12277,19 +12191,8 @@
       <c r="W205" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y205">
-        <f>Y204+1</f>
-        <v>7</v>
-      </c>
-      <c r="Z205" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA205" t="str">
-        <f t="shared" ref="AA205:AA221" si="0">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y205,"_KO")</f>
-        <v>VALIDAZIONE_CDA2_RAP_CT7_KO</v>
-      </c>
-    </row>
-    <row r="206" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="49">
         <v>428</v>
       </c>
@@ -12303,7 +12206,7 @@
         <v>338</v>
       </c>
       <c r="E206" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F206" s="52"/>
       <c r="G206" s="53"/>
@@ -12325,19 +12228,8 @@
       <c r="W206" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y206">
-        <f t="shared" ref="Y206:Y221" si="1">Y205+1</f>
-        <v>8</v>
-      </c>
-      <c r="Z206" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA206" t="str">
-        <f t="shared" si="0"/>
-        <v>VALIDAZIONE_CDA2_RAP_CT8_KO</v>
-      </c>
-    </row>
-    <row r="207" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="49">
         <v>429</v>
       </c>
@@ -12351,7 +12243,7 @@
         <v>339</v>
       </c>
       <c r="E207" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F207" s="52"/>
       <c r="G207" s="53"/>
@@ -12373,19 +12265,8 @@
       <c r="W207" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y207">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="Z207" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA207" t="str">
-        <f t="shared" si="0"/>
-        <v>VALIDAZIONE_CDA2_RAP_CT9_KO</v>
-      </c>
-    </row>
-    <row r="208" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="49">
         <v>430</v>
       </c>
@@ -12399,7 +12280,7 @@
         <v>340</v>
       </c>
       <c r="E208" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F208" s="52"/>
       <c r="G208" s="53"/>
@@ -12421,19 +12302,8 @@
       <c r="W208" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y208">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Z208" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA208" t="str">
-        <f t="shared" si="0"/>
-        <v>VALIDAZIONE_CDA2_RAP_CT10_KO</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="49">
         <v>431</v>
       </c>
@@ -12447,7 +12317,7 @@
         <v>341</v>
       </c>
       <c r="E209" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F209" s="52"/>
       <c r="G209" s="53"/>
@@ -12469,19 +12339,8 @@
       <c r="W209" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y209">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="Z209" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA209" t="str">
-        <f t="shared" si="0"/>
-        <v>VALIDAZIONE_CDA2_RAP_CT11_KO</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="49">
         <v>432</v>
       </c>
@@ -12495,7 +12354,7 @@
         <v>342</v>
       </c>
       <c r="E210" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F210" s="52"/>
       <c r="G210" s="53"/>
@@ -12517,19 +12376,8 @@
       <c r="W210" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y210">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="Z210" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA210" t="str">
-        <f t="shared" si="0"/>
-        <v>VALIDAZIONE_CDA2_RAP_CT12_KO</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="49">
         <v>433</v>
       </c>
@@ -12543,7 +12391,7 @@
         <v>343</v>
       </c>
       <c r="E211" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F211" s="52"/>
       <c r="G211" s="53"/>
@@ -12565,19 +12413,8 @@
       <c r="W211" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y211">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="Z211" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA211" t="str">
-        <f t="shared" si="0"/>
-        <v>VALIDAZIONE_CDA2_RAP_CT13_KO</v>
-      </c>
-    </row>
-    <row r="212" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="49">
         <v>434</v>
       </c>
@@ -12591,7 +12428,7 @@
         <v>344</v>
       </c>
       <c r="E212" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F212" s="52"/>
       <c r="G212" s="53"/>
@@ -12613,19 +12450,8 @@
       <c r="W212" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y212">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Z212" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA212" t="str">
-        <f t="shared" si="0"/>
-        <v>VALIDAZIONE_CDA2_RAP_CT14_KO</v>
-      </c>
-    </row>
-    <row r="213" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="49">
         <v>435</v>
       </c>
@@ -12639,7 +12465,7 @@
         <v>345</v>
       </c>
       <c r="E213" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F213" s="52"/>
       <c r="G213" s="53"/>
@@ -12661,19 +12487,8 @@
       <c r="W213" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y213">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Z213" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA213" t="str">
-        <f t="shared" si="0"/>
-        <v>VALIDAZIONE_CDA2_RAP_CT15_KO</v>
-      </c>
-    </row>
-    <row r="214" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="49">
         <v>436</v>
       </c>
@@ -12687,7 +12502,7 @@
         <v>346</v>
       </c>
       <c r="E214" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F214" s="52"/>
       <c r="G214" s="53"/>
@@ -12709,19 +12524,8 @@
       <c r="W214" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y214">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="Z214" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA214" t="str">
-        <f t="shared" si="0"/>
-        <v>VALIDAZIONE_CDA2_RAP_CT16_KO</v>
-      </c>
-    </row>
-    <row r="215" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="49">
         <v>437</v>
       </c>
@@ -12735,7 +12539,7 @@
         <v>347</v>
       </c>
       <c r="E215" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F215" s="52"/>
       <c r="G215" s="53"/>
@@ -12757,19 +12561,8 @@
       <c r="W215" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y215">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="Z215" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA215" t="str">
-        <f t="shared" si="0"/>
-        <v>VALIDAZIONE_CDA2_RAP_CT17_KO</v>
-      </c>
-    </row>
-    <row r="216" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="49">
         <v>438</v>
       </c>
@@ -12783,7 +12576,7 @@
         <v>348</v>
       </c>
       <c r="E216" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F216" s="52"/>
       <c r="G216" s="53"/>
@@ -12805,19 +12598,8 @@
       <c r="W216" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y216">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="Z216" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA216" t="str">
-        <f t="shared" si="0"/>
-        <v>VALIDAZIONE_CDA2_RAP_CT18_KO</v>
-      </c>
-    </row>
-    <row r="217" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="49">
         <v>439</v>
       </c>
@@ -12831,7 +12613,7 @@
         <v>349</v>
       </c>
       <c r="E217" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F217" s="52"/>
       <c r="G217" s="53"/>
@@ -12853,19 +12635,8 @@
       <c r="W217" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y217">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="Z217" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA217" t="str">
-        <f t="shared" si="0"/>
-        <v>VALIDAZIONE_CDA2_RAP_CT19_KO</v>
-      </c>
-    </row>
-    <row r="218" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="49">
         <v>440</v>
       </c>
@@ -12879,7 +12650,7 @@
         <v>350</v>
       </c>
       <c r="E218" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F218" s="52"/>
       <c r="G218" s="53"/>
@@ -12901,19 +12672,8 @@
       <c r="W218" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y218">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="Z218" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA218" t="str">
-        <f t="shared" si="0"/>
-        <v>VALIDAZIONE_CDA2_RAP_CT20_KO</v>
-      </c>
-    </row>
-    <row r="219" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="49">
         <v>441</v>
       </c>
@@ -12927,7 +12687,7 @@
         <v>351</v>
       </c>
       <c r="E219" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F219" s="52"/>
       <c r="G219" s="53"/>
@@ -12949,19 +12709,8 @@
       <c r="W219" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y219">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="Z219" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA219" t="str">
-        <f t="shared" si="0"/>
-        <v>VALIDAZIONE_CDA2_RAP_CT21_KO</v>
-      </c>
-    </row>
-    <row r="220" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="58">
         <v>442</v>
       </c>
@@ -12972,44 +12721,33 @@
         <v>329</v>
       </c>
       <c r="D220" s="41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E220" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="F220" s="61"/>
-      <c r="G220" s="62"/>
-      <c r="H220" s="62"/>
-      <c r="I220" s="62"/>
-      <c r="J220" s="63"/>
-      <c r="K220" s="63"/>
-      <c r="L220" s="63"/>
-      <c r="M220" s="63"/>
-      <c r="N220" s="63"/>
-      <c r="O220" s="63"/>
-      <c r="P220" s="63"/>
-      <c r="Q220" s="63"/>
-      <c r="R220" s="63"/>
-      <c r="S220" s="63"/>
-      <c r="T220" s="63"/>
-      <c r="U220" s="64"/>
-      <c r="V220" s="65"/>
-      <c r="W220" s="66" t="s">
+        <v>364</v>
+      </c>
+      <c r="F220" s="62"/>
+      <c r="G220" s="63"/>
+      <c r="H220" s="63"/>
+      <c r="I220" s="63"/>
+      <c r="J220" s="64"/>
+      <c r="K220" s="64"/>
+      <c r="L220" s="64"/>
+      <c r="M220" s="64"/>
+      <c r="N220" s="64"/>
+      <c r="O220" s="64"/>
+      <c r="P220" s="64"/>
+      <c r="Q220" s="64"/>
+      <c r="R220" s="64"/>
+      <c r="S220" s="64"/>
+      <c r="T220" s="64"/>
+      <c r="U220" s="65"/>
+      <c r="V220" s="66"/>
+      <c r="W220" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="Y220">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="Z220" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA220" t="str">
-        <f t="shared" si="0"/>
-        <v>VALIDAZIONE_CDA2_RAP_CT22_KO</v>
-      </c>
-    </row>
-    <row r="221" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="49">
         <v>443</v>
       </c>
@@ -13020,10 +12758,10 @@
         <v>329</v>
       </c>
       <c r="D221" s="50" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E221" s="51" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F221" s="52"/>
       <c r="G221" s="53"/>
@@ -13045,19 +12783,8 @@
       <c r="W221" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y221">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="Z221" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA221" t="str">
-        <f t="shared" si="0"/>
-        <v>VALIDAZIONE_CDA2_RAP_CT23_KO</v>
-      </c>
-    </row>
-    <row r="222" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="49">
         <v>444</v>
       </c>
@@ -13094,7 +12821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="49">
         <v>445</v>
       </c>
@@ -13131,7 +12858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="58">
         <v>446</v>
       </c>
@@ -13145,37 +12872,37 @@
         <v>48</v>
       </c>
       <c r="E224" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="F224" s="69">
+        <v>378</v>
+      </c>
+      <c r="F224" s="68">
         <v>45573</v>
       </c>
-      <c r="G224" s="74" t="s">
-        <v>530</v>
-      </c>
-      <c r="H224" s="74" t="s">
-        <v>531</v>
-      </c>
-      <c r="I224" s="74" t="s">
-        <v>532</v>
-      </c>
-      <c r="J224" s="67" t="s">
+      <c r="G224" s="71" t="s">
+        <v>512</v>
+      </c>
+      <c r="H224" s="71" t="s">
+        <v>513</v>
+      </c>
+      <c r="I224" s="71" t="s">
+        <v>514</v>
+      </c>
+      <c r="J224" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="K224" s="34"/>
-      <c r="L224" s="34"/>
-      <c r="M224" s="34"/>
-      <c r="N224" s="34"/>
-      <c r="O224" s="34"/>
-      <c r="P224" s="34"/>
-      <c r="Q224" s="34"/>
-      <c r="R224" s="34"/>
-      <c r="S224" s="34"/>
-      <c r="T224" s="67" t="s">
+      <c r="K224" s="45"/>
+      <c r="L224" s="45"/>
+      <c r="M224" s="45"/>
+      <c r="N224" s="45"/>
+      <c r="O224" s="45"/>
+      <c r="P224" s="45"/>
+      <c r="Q224" s="45"/>
+      <c r="R224" s="45"/>
+      <c r="S224" s="45"/>
+      <c r="T224" s="45" t="s">
         <v>305</v>
       </c>
-      <c r="U224" s="35"/>
-      <c r="V224" s="36"/>
+      <c r="U224" s="46"/>
+      <c r="V224" s="60"/>
       <c r="W224" s="39" t="s">
         <v>37</v>
       </c>
@@ -13194,31 +12921,31 @@
         <v>49</v>
       </c>
       <c r="E225" s="51" t="s">
-        <v>380</v>
-      </c>
-      <c r="F225" s="32"/>
-      <c r="G225" s="33"/>
-      <c r="H225" s="33"/>
-      <c r="I225" s="33"/>
-      <c r="J225" s="67" t="s">
+        <v>379</v>
+      </c>
+      <c r="F225" s="52"/>
+      <c r="G225" s="53"/>
+      <c r="H225" s="53"/>
+      <c r="I225" s="53"/>
+      <c r="J225" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="K225" s="67" t="s">
-        <v>528</v>
-      </c>
-      <c r="L225" s="75"/>
-      <c r="M225" s="34"/>
-      <c r="N225" s="34"/>
-      <c r="O225" s="34"/>
-      <c r="P225" s="34"/>
-      <c r="Q225" s="34"/>
-      <c r="R225" s="34"/>
-      <c r="S225" s="34"/>
-      <c r="T225" s="67" t="s">
+      <c r="K225" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="L225" s="54"/>
+      <c r="M225" s="54"/>
+      <c r="N225" s="54"/>
+      <c r="O225" s="54"/>
+      <c r="P225" s="54"/>
+      <c r="Q225" s="54"/>
+      <c r="R225" s="54"/>
+      <c r="S225" s="54"/>
+      <c r="T225" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="U225" s="35"/>
-      <c r="V225" s="36"/>
+      <c r="U225" s="55"/>
+      <c r="V225" s="56"/>
       <c r="W225" s="57" t="s">
         <v>37</v>
       </c>
@@ -13227,7 +12954,7 @@
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
       <c r="H226" s="6"/>
-      <c r="I226" s="68"/>
+      <c r="I226" s="6"/>
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
       <c r="L226" s="7"/>
@@ -17832,7 +17559,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -17843,19 +17570,19 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J197:J223 M34:N34 P34:R34 J36:J40 M36:N40 P36:R40 M10:N32 M42:N42 P42:R42 J44:J48 M44:N48 P44:R48 M197:N223 P10:R32 J10:J32 J52:J77 J97:J149 M52:N149 P52:R149 J173:J195 P154:R195 M154:N195 P197:R223</xm:sqref>
+          <xm:sqref>J34 M34:N34 P34:R34 J36:J40 M36:N40 P36:R40 J42 M42:N42 P42:R42 J44:J48 M44:N48 P44:R48 P50:R225 P10:R32 M50:N225 J10:J32 M10:N32 J52:J225</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>T34 T36:T40 T42 T44:T48 T10:T32 T52:T149 T154:T195 T197:T223</xm:sqref>
+          <xm:sqref>T34 T36:T40 T42 T44:T48 T50:T225 T10:T32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DE61C5E-9DA3-4CE3-A1FF-8FBE651EA6B5}">
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K36:K41 K10:K33 K44:K49 K52:K77 K97:K149 K173:K195 K197:K223</xm:sqref>
+          <xm:sqref>K10:K225</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17924,7 +17651,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17935,12 +17662,12 @@
     <col min="4" max="4" width="102" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
-        <v>368</v>
+      <c r="A1" s="61" t="s">
+        <v>367</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>15</v>
@@ -17955,7 +17682,7 @@
         <v>320</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18092,10 +17819,10 @@
         <v>287</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20102,6 +19829,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20359,29 +20107,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188DA7F5-158B-4F2F-BE68-E8B30B468193}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -20397,29 +20149,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#DLSERVICEXX/DLService/MediciConvenzionati/15.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#DLSERVICEXX/DLService/MediciConvenzionati/15.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlorefice\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlorefice\Documents\GitHub\it-fse-accreditamento\it-fse-accreditamento\GATEWAY\A1#111#DLSERVICEXX\DLService\MediciConvenzionati\15.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5371E4B4-EB02-4DD8-9EC4-15F046716C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B456C761-2905-4633-B67F-BFDAB709A818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="517">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1967,25 +1967,31 @@
     <t>Viene segnalato un errore di timeout della validazione e si richiede all'utente di riprovare in un momento successivo.</t>
   </si>
   <si>
-    <t>2024-10-08T17:36:21Z</t>
-  </si>
-  <si>
-    <t>250828504fffc976</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.2981af7bf497558b8949deeaf41447701515658a3834bc40e21e44e2389709c7.9b2c286e65^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>E' stato utilizzato lo stesso file pdf contente il Referto xml CDA2 del Test Case 1 dato che contiene tutte le sezioni ed elementi obbligatori da specifiche nazionali HL7 Italia</t>
   </si>
   <si>
-    <t>2024-10-08T17:36:20Z</t>
-  </si>
-  <si>
-    <t>ae4a29d8feb76b68</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.2981af7bf497558b8949deeaf41447701515658a3834bc40e21e44e2389709c7.599f636a63^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-10-17T12:58:34Z</t>
+  </si>
+  <si>
+    <t>2024-10-17T12:58:35Z</t>
+  </si>
+  <si>
+    <t>5068ad7517b25225</t>
+  </si>
+  <si>
+    <t>fd96aa3acc3dd3fc</t>
+  </si>
+  <si>
+    <t>e4885c4abc0cc50b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.2981af7bf497558b8949deeaf41447701515658a3834bc40e21e44e2389709c7.539d0460fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.2981af7bf497558b8949deeaf41447701515658a3834bc40e21e44e2389709c7.77ea3fae5f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.2981af7bf497558b8949deeaf41447701515658a3834bc40e21e44e2389709c7.c539c8bf24^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4382,10 +4388,10 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L172" sqref="L172"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10017,16 +10023,16 @@
         <v>468</v>
       </c>
       <c r="F150" s="68">
-        <v>45573</v>
+        <v>45582</v>
       </c>
       <c r="G150" s="71" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H150" s="71" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="I150" s="71" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J150" s="34" t="s">
         <v>87</v>
@@ -11825,16 +11831,16 @@
         <v>500</v>
       </c>
       <c r="F196" s="68">
-        <v>45573</v>
+        <v>45582</v>
       </c>
       <c r="G196" s="71" t="s">
+        <v>509</v>
+      </c>
+      <c r="H196" s="71" t="s">
         <v>512</v>
       </c>
-      <c r="H196" s="71" t="s">
-        <v>509</v>
-      </c>
       <c r="I196" s="71" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="J196" s="34" t="s">
         <v>87</v>
@@ -11853,7 +11859,7 @@
       </c>
       <c r="U196" s="35"/>
       <c r="V196" s="36" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="W196" s="39" t="s">
         <v>37</v>
@@ -12875,16 +12881,16 @@
         <v>378</v>
       </c>
       <c r="F224" s="68">
-        <v>45573</v>
+        <v>45582</v>
       </c>
       <c r="G224" s="71" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H224" s="71" t="s">
         <v>513</v>
       </c>
       <c r="I224" s="71" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="J224" s="45" t="s">
         <v>87</v>
@@ -19829,27 +19835,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20107,32 +20092,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20149,4 +20130,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#DLSERVICEXX/DLService/MediciConvenzionati/15.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#DLSERVICEXX/DLService/MediciConvenzionati/15.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlorefice\Documents\GitHub\it-fse-accreditamento\it-fse-accreditamento\GATEWAY\A1#111#DLSERVICEXX\DLService\MediciConvenzionati\15.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B456C761-2905-4633-B67F-BFDAB709A818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBC466E-711F-4A84-8E49-F4104E3DB350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1973,25 +1973,25 @@
     <t>2024-10-17T12:58:34Z</t>
   </si>
   <si>
-    <t>2024-10-17T12:58:35Z</t>
-  </si>
-  <si>
     <t>5068ad7517b25225</t>
   </si>
   <si>
     <t>fd96aa3acc3dd3fc</t>
   </si>
   <si>
-    <t>e4885c4abc0cc50b</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.190.4.4.2981af7bf497558b8949deeaf41447701515658a3834bc40e21e44e2389709c7.539d0460fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.190.4.4.2981af7bf497558b8949deeaf41447701515658a3834bc40e21e44e2389709c7.77ea3fae5f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.2981af7bf497558b8949deeaf41447701515658a3834bc40e21e44e2389709c7.c539c8bf24^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-11-04T12:40:10Z</t>
+  </si>
+  <si>
+    <t>ca16eb4c62769690</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.2981af7bf497558b8949deeaf41447701515658a3834bc40e21e44e2389709c7.1e6c3d290d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4388,10 +4388,10 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10029,10 +10029,10 @@
         <v>509</v>
       </c>
       <c r="H150" s="71" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I150" s="71" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J150" s="34" t="s">
         <v>87</v>
@@ -11837,10 +11837,10 @@
         <v>509</v>
       </c>
       <c r="H196" s="71" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I196" s="71" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J196" s="34" t="s">
         <v>87</v>
@@ -12881,13 +12881,13 @@
         <v>378</v>
       </c>
       <c r="F224" s="68">
-        <v>45582</v>
+        <v>45600</v>
       </c>
       <c r="G224" s="71" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H224" s="71" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="I224" s="71" t="s">
         <v>516</v>
@@ -19835,6 +19835,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20092,28 +20113,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20130,29 +20155,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>